--- a/DSC 530 - Data Exploration and Analysis/Project/Data/2020_Census_Data_by_State.xlsx
+++ b/DSC 530 - Data Exploration and Analysis/Project/Data/2020_Census_Data_by_State.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bellevueuniversity-my.sharepoint.com/personal/ptweatherford_my365_bellevue_edu/Documents/BU/DSC 530 - Data Exploration and Analysis/Patrick.Weatherford-DSC530/Project/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bellevueuniversity-my.sharepoint.com/personal/ptweatherford_my365_bellevue_edu/Documents/Bellevue_University/DSC 530 - Data Exploration and Analysis/Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E2EB4D8E-887A-4C4B-9061-502BB1EC1516}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8D5B59A9-2CE4-4061-8347-7FC21922BE15}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{E2EB4D8E-887A-4C4B-9061-502BB1EC1516}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7B04DC79-491C-4CBD-AF87-7F948DF82865}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{296B3E2C-FDD7-4933-A206-71D5FE24E723}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{296B3E2C-FDD7-4933-A206-71D5FE24E723}"/>
   </bookViews>
   <sheets>
     <sheet name="CensusData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>APA:</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Delaware</t>
   </si>
   <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
   </si>
   <si>
     <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
   </si>
   <si>
     <t>URL:</t>
@@ -275,8 +269,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B6F1624-0B65-48B7-86EB-819B488BEE7E}" name="Table1" displayName="Table1" ref="A1:B53" totalsRowShown="0">
-  <autoFilter ref="A1:B53" xr:uid="{DA63C860-CE58-4BAB-A1B6-29A0E7B191AC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B6F1624-0B65-48B7-86EB-819B488BEE7E}" name="Table1" displayName="Table1" ref="A1:B51" totalsRowShown="0">
+  <autoFilter ref="A1:B51" xr:uid="{DA63C860-CE58-4BAB-A1B6-29A0E7B191AC}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E6FCBBD9-479A-45BE-BFCA-6CC2092CC1DE}" name="State"/>
     <tableColumn id="2" xr3:uid="{1B199203-20E9-4398-97E4-163BE077A4C3}" name="Population"/>
@@ -582,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BB7729-5925-45BF-A72D-009DAEA4E78B}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +665,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>689545</v>
+        <v>21538187</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>21538187</v>
+        <v>10711908</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>10711908</v>
+        <v>1455271</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +689,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>1455271</v>
+        <v>1839106</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +697,7 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>1839106</v>
+        <v>12812508</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>12812508</v>
+        <v>6785528</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +713,7 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>6785528</v>
+        <v>3190369</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +721,7 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>3190369</v>
+        <v>2937880</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +729,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>2937880</v>
+        <v>4505836</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +737,7 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>4505836</v>
+        <v>4657757</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +745,7 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>4657757</v>
+        <v>1362359</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,7 +753,7 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>1362359</v>
+        <v>6177224</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>6177224</v>
+        <v>7029917</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>7029917</v>
+        <v>10077331</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +777,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>10077331</v>
+        <v>5706494</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +785,7 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>5706494</v>
+        <v>2961279</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +793,7 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>2961279</v>
+        <v>6154913</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +801,7 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>6154913</v>
+        <v>1084225</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -815,7 +809,7 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>1084225</v>
+        <v>1961504</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +817,7 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>1961504</v>
+        <v>3104614</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,7 +825,7 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>3104614</v>
+        <v>1377529</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +833,7 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>1377529</v>
+        <v>9288994</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +841,7 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>9288994</v>
+        <v>2117522</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,7 +849,7 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>2117522</v>
+        <v>20201249</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +857,7 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>20201249</v>
+        <v>10439388</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +865,7 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>10439388</v>
+        <v>779094</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +873,7 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>779094</v>
+        <v>11799448</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +881,7 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>11799448</v>
+        <v>3959353</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,7 +889,7 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>3959353</v>
+        <v>4237256</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +897,7 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>4237256</v>
+        <v>13002700</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,7 +905,7 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>13002700</v>
+        <v>1097379</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +913,7 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>1097379</v>
+        <v>5118425</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +921,7 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>5118425</v>
+        <v>886667</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,7 +929,7 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>886667</v>
+        <v>6910840</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -943,7 +937,7 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>6910840</v>
+        <v>29145505</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -951,7 +945,7 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>29145505</v>
+        <v>3271616</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,7 +953,7 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>3271616</v>
+        <v>643077</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +961,7 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>643077</v>
+        <v>8631393</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,7 +969,7 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>8631393</v>
+        <v>7705281</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -983,7 +977,7 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>7705281</v>
+        <v>1793716</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,7 +985,7 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>1793716</v>
+        <v>5893718</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -999,23 +993,7 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>5893718</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52">
         <v>576851</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53">
-        <v>3285874</v>
       </c>
     </row>
   </sheetData>
@@ -1030,7 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7685AF09-85BA-47B1-961E-6368C40A0FAF}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1041,10 +1019,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
